--- a/Basic function/12 most useful excel formulas.xlsx
+++ b/Basic function/12 most useful excel formulas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel\Basic function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Vlookup" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     <sheet name="Sumifs" sheetId="10" r:id="rId10"/>
     <sheet name="Countif" sheetId="11" r:id="rId11"/>
     <sheet name="Countifs" sheetId="12" r:id="rId12"/>
+    <sheet name="Sumif with Pivot" sheetId="13" r:id="rId13"/>
+    <sheet name="Sumiffs with Pivot" sheetId="14" r:id="rId14"/>
+    <sheet name="Countif with Pivot" sheetId="15" r:id="rId15"/>
+    <sheet name="Countifs with Pivot" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'&amp; Formula'!$B$2:$D$10</definedName>
@@ -31,6 +35,10 @@
     <definedName name="xyz">_xlfn.XLOOKUP('Picture Lookup'!$F$4,'Picture Lookup'!$B$4:$B$7,'Picture Lookup'!$D$4:$D$7)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="132">
   <si>
     <t>Product ID</t>
   </si>
@@ -347,13 +355,137 @@
   </si>
   <si>
     <t>*mouse*</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Q) Find the total Units that were sold in the East region</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Kivell</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Jardine</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of Units</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Sorvino</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Q) What was the total revenue generated from Binder</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Pen Set</t>
+  </si>
+  <si>
+    <t>Sales Rep</t>
+  </si>
+  <si>
+    <t>Q) What is the total revenue generated from the Central region where the item is a Pencil?</t>
+  </si>
+  <si>
+    <t>Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Q) How many units were sold by sales representative Jones where the cost of each item was greater than 4?</t>
+  </si>
+  <si>
+    <t>Q) How many units did Jones sell excluding Pencil item?</t>
+  </si>
+  <si>
+    <t>Total revenue for units&gt;50</t>
+  </si>
+  <si>
+    <t>Sales &gt;3</t>
+  </si>
+  <si>
+    <t>Q) Find the total number of times Gill has a made a sale</t>
+  </si>
+  <si>
+    <t>Q) Which sales representative made a sale more than 3 times.</t>
+  </si>
+  <si>
+    <t>Q) How many orders were placed from the East region after 10th Feb 2019?</t>
+  </si>
+  <si>
+    <t>Q) How many times did Gill sell pencils?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -375,8 +507,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +548,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,10 +606,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,11 +632,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -717,7 +962,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="abc" spid="_x0000_s4100"/>
+                  <a14:cameraTool cellRange="abc" spid="_x0000_s4102"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -745,6 +990,1055 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.663264699077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G44" sheet="Sumif" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="OrderDate" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-06T00:00:00" maxDate="2020-12-22T00:00:00"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rep" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Pencil"/>
+        <s v="Binder"/>
+        <s v="Pen"/>
+        <s v="Desk"/>
+        <s v="Pen Set"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Unit Cost" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.29" maxValue="275"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0300000000000011" maxValue="1879.06"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Avijeet Biswal" refreshedDate="44019.675568981482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G44" sheet="Sumifs" r:id="rId2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="OrderDate" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-01-06T00:00:00" maxDate="2020-12-22T00:00:00"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rep" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Pencil"/>
+        <s v="Binder"/>
+        <s v="Pen"/>
+        <s v="Desk"/>
+        <s v="Pen Set"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Unit Cost" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.29" maxValue="275"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0300000000000011" maxValue="1879.06"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+  <r>
+    <d v="2019-01-06T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="1.99"/>
+    <n v="189.05"/>
+  </r>
+  <r>
+    <d v="2019-01-23T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="19.989999999999998"/>
+    <n v="999.49999999999989"/>
+  </r>
+  <r>
+    <d v="2019-02-09T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="4.99"/>
+    <n v="179.64000000000001"/>
+  </r>
+  <r>
+    <d v="2019-02-26T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="19.989999999999998"/>
+    <n v="539.7299999999999"/>
+  </r>
+  <r>
+    <d v="2019-03-15T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="2.99"/>
+    <n v="167.44"/>
+  </r>
+  <r>
+    <d v="2019-04-01T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="4.99"/>
+    <n v="299.40000000000003"/>
+  </r>
+  <r>
+    <d v="2019-04-18T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="1.99"/>
+    <n v="149.25"/>
+  </r>
+  <r>
+    <d v="2019-05-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="4.99"/>
+    <n v="449.1"/>
+  </r>
+  <r>
+    <d v="2019-05-22T00:00:00"/>
+    <x v="2"/>
+    <s v="Thompson"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="1.99"/>
+    <n v="63.68"/>
+  </r>
+  <r>
+    <d v="2019-06-08T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8.99"/>
+    <n v="539.4"/>
+  </r>
+  <r>
+    <d v="2019-06-25T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="4.99"/>
+    <n v="449.1"/>
+  </r>
+  <r>
+    <d v="2019-07-12T00:00:00"/>
+    <x v="0"/>
+    <s v="Howard"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="1.99"/>
+    <n v="57.71"/>
+  </r>
+  <r>
+    <d v="2019-07-29T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="19.989999999999998"/>
+    <n v="1619.1899999999998"/>
+  </r>
+  <r>
+    <d v="2019-08-15T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="4.99"/>
+    <n v="174.65"/>
+  </r>
+  <r>
+    <d v="2019-09-01T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <d v="2019-09-18T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="15.99"/>
+    <n v="255.84"/>
+  </r>
+  <r>
+    <d v="2019-10-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="8.99"/>
+    <n v="251.72"/>
+  </r>
+  <r>
+    <d v="2019-10-22T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="2"/>
+    <n v="64"/>
+    <n v="8.99"/>
+    <n v="575.36"/>
+  </r>
+  <r>
+    <d v="2019-11-08T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="19.989999999999998"/>
+    <n v="299.84999999999997"/>
+  </r>
+  <r>
+    <d v="2019-11-25T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="4"/>
+    <n v="96"/>
+    <n v="4.99"/>
+    <n v="479.04"/>
+  </r>
+  <r>
+    <d v="2019-12-12T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="1.29"/>
+    <n v="86.43"/>
+  </r>
+  <r>
+    <d v="2019-12-29T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="4"/>
+    <n v="74"/>
+    <n v="15.99"/>
+    <n v="1183.26"/>
+  </r>
+  <r>
+    <d v="2020-01-15T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="8.99"/>
+    <n v="413.54"/>
+  </r>
+  <r>
+    <d v="2020-02-01T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="15"/>
+    <n v="1305"/>
+  </r>
+  <r>
+    <d v="2020-02-18T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4.99"/>
+    <n v="19.96"/>
+  </r>
+  <r>
+    <d v="2020-03-07T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="19.989999999999998"/>
+    <n v="139.92999999999998"/>
+  </r>
+  <r>
+    <d v="2020-03-24T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="4.99"/>
+    <n v="249.5"/>
+  </r>
+  <r>
+    <d v="2020-04-10T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="1.99"/>
+    <n v="131.34"/>
+  </r>
+  <r>
+    <d v="2020-04-27T00:00:00"/>
+    <x v="0"/>
+    <s v="Howard"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="4.99"/>
+    <n v="479.04"/>
+  </r>
+  <r>
+    <d v="2020-05-14T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="1.29"/>
+    <n v="68.37"/>
+  </r>
+  <r>
+    <d v="2020-05-31T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="1"/>
+    <n v="80"/>
+    <n v="8.99"/>
+    <n v="719.2"/>
+  </r>
+  <r>
+    <d v="2020-06-17T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="125"/>
+    <n v="625"/>
+  </r>
+  <r>
+    <d v="2020-07-04T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="4"/>
+    <n v="62"/>
+    <n v="4.99"/>
+    <n v="309.38"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="12.49"/>
+    <n v="686.95"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="4"/>
+    <n v="42"/>
+    <n v="23.95"/>
+    <n v="1005.9"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="275"/>
+    <n v="825"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1.29"/>
+    <n v="9.0300000000000011"/>
+  </r>
+  <r>
+    <d v="2020-09-27T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="1.99"/>
+    <n v="151.24"/>
+  </r>
+  <r>
+    <d v="2020-10-14T00:00:00"/>
+    <x v="2"/>
+    <s v="Thompson"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="19.989999999999998"/>
+    <n v="1139.4299999999998"/>
+  </r>
+  <r>
+    <d v="2020-10-31T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="1.29"/>
+    <n v="18.060000000000002"/>
+  </r>
+  <r>
+    <d v="2020-11-17T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="4.99"/>
+    <n v="54.89"/>
+  </r>
+  <r>
+    <d v="2020-12-04T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="19.989999999999998"/>
+    <n v="1879.06"/>
+  </r>
+  <r>
+    <d v="2020-12-21T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="4.99"/>
+    <n v="139.72"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+  <r>
+    <d v="2019-01-06T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="1.99"/>
+    <n v="189.05"/>
+  </r>
+  <r>
+    <d v="2019-01-23T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="19.989999999999998"/>
+    <n v="999.49999999999989"/>
+  </r>
+  <r>
+    <d v="2019-02-09T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="4.99"/>
+    <n v="179.64000000000001"/>
+  </r>
+  <r>
+    <d v="2019-02-26T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="19.989999999999998"/>
+    <n v="539.7299999999999"/>
+  </r>
+  <r>
+    <d v="2019-03-15T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="0"/>
+    <n v="56"/>
+    <n v="2.99"/>
+    <n v="167.44"/>
+  </r>
+  <r>
+    <d v="2019-04-01T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="4.99"/>
+    <n v="299.40000000000003"/>
+  </r>
+  <r>
+    <d v="2019-04-18T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="1.99"/>
+    <n v="149.25"/>
+  </r>
+  <r>
+    <d v="2019-05-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="4.99"/>
+    <n v="449.1"/>
+  </r>
+  <r>
+    <d v="2019-05-22T00:00:00"/>
+    <x v="2"/>
+    <s v="Thompson"/>
+    <x v="0"/>
+    <n v="32"/>
+    <n v="1.99"/>
+    <n v="63.68"/>
+  </r>
+  <r>
+    <d v="2019-06-08T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8.99"/>
+    <n v="539.4"/>
+  </r>
+  <r>
+    <d v="2019-06-25T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="4.99"/>
+    <n v="449.1"/>
+  </r>
+  <r>
+    <d v="2019-07-12T00:00:00"/>
+    <x v="0"/>
+    <s v="Howard"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="1.99"/>
+    <n v="57.71"/>
+  </r>
+  <r>
+    <d v="2019-07-29T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="19.989999999999998"/>
+    <n v="1619.1899999999998"/>
+  </r>
+  <r>
+    <d v="2019-08-15T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="0"/>
+    <n v="35"/>
+    <n v="4.99"/>
+    <n v="174.65"/>
+  </r>
+  <r>
+    <d v="2019-09-01T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <d v="2019-09-18T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="15.99"/>
+    <n v="255.84"/>
+  </r>
+  <r>
+    <d v="2019-10-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="8.99"/>
+    <n v="251.72"/>
+  </r>
+  <r>
+    <d v="2019-10-22T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="2"/>
+    <n v="64"/>
+    <n v="8.99"/>
+    <n v="575.36"/>
+  </r>
+  <r>
+    <d v="2019-11-08T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="19.989999999999998"/>
+    <n v="299.84999999999997"/>
+  </r>
+  <r>
+    <d v="2019-11-25T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="4"/>
+    <n v="96"/>
+    <n v="4.99"/>
+    <n v="479.04"/>
+  </r>
+  <r>
+    <d v="2019-12-12T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="1.29"/>
+    <n v="86.43"/>
+  </r>
+  <r>
+    <d v="2019-12-29T00:00:00"/>
+    <x v="0"/>
+    <s v="Parent"/>
+    <x v="4"/>
+    <n v="74"/>
+    <n v="15.99"/>
+    <n v="1183.26"/>
+  </r>
+  <r>
+    <d v="2020-01-15T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="1"/>
+    <n v="46"/>
+    <n v="8.99"/>
+    <n v="413.54"/>
+  </r>
+  <r>
+    <d v="2020-02-01T00:00:00"/>
+    <x v="1"/>
+    <s v="Smith"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="15"/>
+    <n v="1305"/>
+  </r>
+  <r>
+    <d v="2020-02-18T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4.99"/>
+    <n v="19.96"/>
+  </r>
+  <r>
+    <d v="2020-03-07T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="19.989999999999998"/>
+    <n v="139.92999999999998"/>
+  </r>
+  <r>
+    <d v="2020-03-24T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="4"/>
+    <n v="50"/>
+    <n v="4.99"/>
+    <n v="249.5"/>
+  </r>
+  <r>
+    <d v="2020-04-10T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="1.99"/>
+    <n v="131.34"/>
+  </r>
+  <r>
+    <d v="2020-04-27T00:00:00"/>
+    <x v="0"/>
+    <s v="Howard"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="4.99"/>
+    <n v="479.04"/>
+  </r>
+  <r>
+    <d v="2020-05-14T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="0"/>
+    <n v="53"/>
+    <n v="1.29"/>
+    <n v="68.37"/>
+  </r>
+  <r>
+    <d v="2020-05-31T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="1"/>
+    <n v="80"/>
+    <n v="8.99"/>
+    <n v="719.2"/>
+  </r>
+  <r>
+    <d v="2020-06-17T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="125"/>
+    <n v="625"/>
+  </r>
+  <r>
+    <d v="2020-07-04T00:00:00"/>
+    <x v="0"/>
+    <s v="Jones"/>
+    <x v="4"/>
+    <n v="62"/>
+    <n v="4.99"/>
+    <n v="309.38"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <x v="1"/>
+    <s v="Morgan"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="12.49"/>
+    <n v="686.95"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="1"/>
+    <s v="Kivell"/>
+    <x v="4"/>
+    <n v="42"/>
+    <n v="23.95"/>
+    <n v="1005.9"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="275"/>
+    <n v="825"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <x v="1"/>
+    <s v="Gill"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1.29"/>
+    <n v="9.0300000000000011"/>
+  </r>
+  <r>
+    <d v="2020-09-27T00:00:00"/>
+    <x v="2"/>
+    <s v="Sorvino"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="1.99"/>
+    <n v="151.24"/>
+  </r>
+  <r>
+    <d v="2020-10-14T00:00:00"/>
+    <x v="2"/>
+    <s v="Thompson"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="19.989999999999998"/>
+    <n v="1139.4299999999998"/>
+  </r>
+  <r>
+    <d v="2020-10-31T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="1.29"/>
+    <n v="18.060000000000002"/>
+  </r>
+  <r>
+    <d v="2020-11-17T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="4.99"/>
+    <n v="54.89"/>
+  </r>
+  <r>
+    <d v="2020-12-04T00:00:00"/>
+    <x v="1"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="19.989999999999998"/>
+    <n v="1879.06"/>
+  </r>
+  <r>
+    <d v="2020-12-21T00:00:00"/>
+    <x v="1"/>
+    <s v="Andrews"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="4.99"/>
+    <n v="139.72"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M12:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1895,6 +3189,4714 @@
       </c>
       <c r="E12" s="4">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>43471</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="19">
+        <v>189.05</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>43488</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="19">
+        <v>999.49999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>43505</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="17">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="19">
+        <v>179.64000000000001</v>
+      </c>
+      <c r="J4" s="21">
+        <f>SUMIF(B2:B44,"East",E2:E44)</f>
+        <v>691</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="19">
+        <v>539.7299999999999</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="23">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>43539</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="19">
+        <v>167.44</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="23">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>43556</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="19">
+        <v>299.40000000000003</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>43573</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="19">
+        <v>149.25</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="23">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>43590</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="19">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>43607</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="17">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="19">
+        <v>63.68</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>43624</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="19">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>43641</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17">
+        <v>90</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>449.1</v>
+      </c>
+      <c r="J12" s="21">
+        <f>SUMIF(D2:D44,"Binder",G2:G44)</f>
+        <v>9577.65</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>43658</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="17">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="19">
+        <v>57.71</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="23">
+        <v>9577.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="17">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1619.1899999999998</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="23">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="19">
+        <v>174.65</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="23">
+        <v>2045.2199999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>125</v>
+      </c>
+      <c r="G16" s="19">
+        <v>250</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="23">
+        <v>4169.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="19">
+        <v>255.84</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" s="23">
+        <v>2135.1400000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="17">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="19">
+        <v>251.72</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="23">
+        <v>19627.879999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17">
+        <v>64</v>
+      </c>
+      <c r="F19" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="19">
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>43777</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G20" s="19">
+        <v>299.84999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>43794</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17">
+        <v>96</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="19">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>43811</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17">
+        <v>67</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="19">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>43828</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="17">
+        <v>74</v>
+      </c>
+      <c r="F23" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1183.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>43845</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="17">
+        <v>46</v>
+      </c>
+      <c r="F24" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="19">
+        <v>413.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="17">
+        <v>87</v>
+      </c>
+      <c r="F25" s="18">
+        <v>15</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>43879</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="19">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>43897</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="17">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="19">
+        <v>139.92999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="17">
+        <v>50</v>
+      </c>
+      <c r="F28" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="19">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17">
+        <v>66</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="19">
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>43948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="17">
+        <v>96</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="19">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>43965</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="17">
+        <v>53</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="19">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>43982</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="17">
+        <v>80</v>
+      </c>
+      <c r="F32" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="19">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>43999</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>44016</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="17">
+        <v>62</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="19">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>44033</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="17">
+        <v>55</v>
+      </c>
+      <c r="F35" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="19">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>44050</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="17">
+        <v>42</v>
+      </c>
+      <c r="F36" s="18">
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>44067</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>275</v>
+      </c>
+      <c r="G37" s="19">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>44084</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="17">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="19">
+        <v>9.0300000000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>44101</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="17">
+        <v>76</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="19">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>44135</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="19">
+        <v>18.060000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>44152</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="17">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="19">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>44169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="17">
+        <v>94</v>
+      </c>
+      <c r="F43" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>44186</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="17">
+        <v>28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="19">
+        <v>139.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>43471</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="19">
+        <v>189.05</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>43488</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="19">
+        <v>999.49999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>43505</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="17">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="19">
+        <v>179.64000000000001</v>
+      </c>
+      <c r="J4" s="21">
+        <f>SUMIFS(G2:G44,B2:B44,"Central",D2:D44,"Pencil")</f>
+        <v>1540.32</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="19">
+        <v>539.7299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>43539</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="19">
+        <v>167.44</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>43556</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="19">
+        <v>299.40000000000003</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="23">
+        <v>1540.3200000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>43573</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="19">
+        <v>149.25</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="23">
+        <v>363.70000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>43590</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="19">
+        <v>449.1</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="23">
+        <v>231.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>43607</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="17">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="19">
+        <v>63.68</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="23">
+        <v>2135.1400000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>43624</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="19">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>43641</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17">
+        <v>90</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>449.1</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>43658</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="17">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="19">
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="17">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1619.1899999999998</v>
+      </c>
+      <c r="J14" s="21">
+        <f>SUMIFS(E2:E44,C2:C44,"Jones",F2:F44,"&gt;5")</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="19">
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>125</v>
+      </c>
+      <c r="G16" s="19">
+        <v>250</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="19">
+        <v>255.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="17">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="19">
+        <v>251.72</v>
+      </c>
+      <c r="J18" s="21">
+        <f>SUMIFS(E2:E44,C2:C44,"Jones", D2:D44,"&lt;&gt;Pencil")</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17">
+        <v>64</v>
+      </c>
+      <c r="F19" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="19">
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>43777</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G20" s="19">
+        <v>299.84999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>43794</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17">
+        <v>96</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="19">
+        <v>479.04</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>43811</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17">
+        <v>67</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="19">
+        <v>86.43</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <f>SUMIFS($G$2:$G$44,$C$2:$C$44,J22,$E$2:$E$44,"&gt;50")</f>
+        <v>1912.5900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>43828</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="17">
+        <v>74</v>
+      </c>
+      <c r="F23" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1183.26</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K26" si="0">SUMIFS($G$2:$G$44,$C$2:$C$44,J23,$E$2:$E$44,"&gt;50")</f>
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>43845</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="17">
+        <v>46</v>
+      </c>
+      <c r="F24" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="19">
+        <v>413.54</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>2328.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="17">
+        <v>87</v>
+      </c>
+      <c r="F25" s="18">
+        <v>15</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1305</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>787.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>43879</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="19">
+        <v>19.96</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>318.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>43897</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="17">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="19">
+        <v>139.92999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="17">
+        <v>50</v>
+      </c>
+      <c r="F28" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="19">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17">
+        <v>66</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="19">
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>43948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="17">
+        <v>96</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="19">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>43965</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="17">
+        <v>53</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="19">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>43982</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="17">
+        <v>80</v>
+      </c>
+      <c r="F32" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="19">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>43999</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>44016</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="17">
+        <v>62</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="19">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>44033</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="17">
+        <v>55</v>
+      </c>
+      <c r="F35" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="19">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>44050</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="17">
+        <v>42</v>
+      </c>
+      <c r="F36" s="18">
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>44067</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>275</v>
+      </c>
+      <c r="G37" s="19">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>44084</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="17">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="19">
+        <v>9.0300000000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>44101</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="17">
+        <v>76</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="19">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>44135</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="19">
+        <v>18.060000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>44152</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="17">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="19">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>44169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="17">
+        <v>94</v>
+      </c>
+      <c r="F43" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>44186</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="17">
+        <v>28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="19">
+        <v>139.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>43471</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="19">
+        <v>189.05</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF($C$2:$C$44,C2)</f>
+        <v>8</v>
+      </c>
+      <c r="I2" t="b">
+        <f>COUNTIF(C1:C44,C2)&gt;3</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>43488</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="19">
+        <v>999.49999999999989</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H44" si="0">COUNTIF($C$2:$C$44,C3)</f>
+        <v>4</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I44" si="1">COUNTIF(C2:C45,C3)&gt;3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>43505</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="17">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="19">
+        <v>179.64000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <f>COUNTIF(C2:C44,"Gill")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="19">
+        <v>539.7299999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>43539</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="19">
+        <v>167.44</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>43556</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="19">
+        <v>299.40000000000003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>43573</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="19">
+        <v>149.25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>43590</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="19">
+        <v>449.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>43607</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="17">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="19">
+        <v>63.68</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>43624</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="19">
+        <v>539.4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>43641</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17">
+        <v>90</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>449.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>43658</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="17">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="19">
+        <v>57.71</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="17">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1619.1899999999998</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="19">
+        <v>174.65</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>125</v>
+      </c>
+      <c r="G16" s="19">
+        <v>250</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="19">
+        <v>255.84</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="17">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="19">
+        <v>251.72</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17">
+        <v>64</v>
+      </c>
+      <c r="F19" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="19">
+        <v>575.36</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>43777</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G20" s="19">
+        <v>299.84999999999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>43794</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17">
+        <v>96</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="19">
+        <v>479.04</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>43811</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17">
+        <v>67</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="19">
+        <v>86.43</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>43828</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="17">
+        <v>74</v>
+      </c>
+      <c r="F23" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1183.26</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>43845</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="17">
+        <v>46</v>
+      </c>
+      <c r="F24" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="19">
+        <v>413.54</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="17">
+        <v>87</v>
+      </c>
+      <c r="F25" s="18">
+        <v>15</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1305</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>43879</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="19">
+        <v>19.96</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>43897</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="17">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="19">
+        <v>139.92999999999998</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="17">
+        <v>50</v>
+      </c>
+      <c r="F28" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="19">
+        <v>249.5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17">
+        <v>66</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="19">
+        <v>131.34</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>43948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="17">
+        <v>96</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="19">
+        <v>479.04</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>43965</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="17">
+        <v>53</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="19">
+        <v>68.37</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>43982</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="17">
+        <v>80</v>
+      </c>
+      <c r="F32" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="19">
+        <v>719.2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>43999</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>625</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>44016</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="17">
+        <v>62</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="19">
+        <v>309.38</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>44033</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="17">
+        <v>55</v>
+      </c>
+      <c r="F35" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="19">
+        <v>686.95</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>44050</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="17">
+        <v>42</v>
+      </c>
+      <c r="F36" s="18">
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1005.9</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>44067</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>275</v>
+      </c>
+      <c r="G37" s="19">
+        <v>825</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>44084</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="17">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="19">
+        <v>9.0300000000000011</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>44101</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="17">
+        <v>76</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="19">
+        <v>151.24</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1139.4299999999998</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>44135</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="19">
+        <v>18.060000000000002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>44152</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="17">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="19">
+        <v>54.89</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>44169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="17">
+        <v>94</v>
+      </c>
+      <c r="F43" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1879.06</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>44186</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="17">
+        <v>28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="19">
+        <v>139.72</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I44">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="True">
+      <formula>NOT(ISERROR(SEARCH("True",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>43471</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="17">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G2" s="19">
+        <v>189.05</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>43488</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="17">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G3" s="19">
+        <v>999.49999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>43505</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="17">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G4" s="19">
+        <v>179.64000000000001</v>
+      </c>
+      <c r="J4" s="21">
+        <f>COUNTIFS(A2:A44,"&gt;2-10-2019",B2:B44,"East")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>43522</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="17">
+        <v>27</v>
+      </c>
+      <c r="F5" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="19">
+        <v>539.7299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>43539</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.99</v>
+      </c>
+      <c r="G6" s="19">
+        <v>167.44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>43556</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="17">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="19">
+        <v>299.40000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>43573</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G8" s="19">
+        <v>149.25</v>
+      </c>
+      <c r="J8" s="21">
+        <f>COUNTIFS(D2:D44,"Pencil",C2:C44,"Gill")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>43590</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17">
+        <v>90</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G9" s="19">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>43607</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="17">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G10" s="19">
+        <v>63.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>43624</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="19">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>43641</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17">
+        <v>90</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>43658</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="17">
+        <v>29</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="19">
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>43675</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="17">
+        <v>81</v>
+      </c>
+      <c r="F14" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1619.1899999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>43692</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="19">
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>125</v>
+      </c>
+      <c r="G16" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>43726</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G17" s="19">
+        <v>255.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="17">
+        <v>28</v>
+      </c>
+      <c r="F18" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G18" s="19">
+        <v>251.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="17">
+        <v>64</v>
+      </c>
+      <c r="F19" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G19" s="19">
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>43777</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G20" s="19">
+        <v>299.84999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>43794</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="17">
+        <v>96</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G21" s="19">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>43811</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17">
+        <v>67</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G22" s="19">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>43828</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="17">
+        <v>74</v>
+      </c>
+      <c r="F23" s="18">
+        <v>15.99</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1183.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>43845</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="17">
+        <v>46</v>
+      </c>
+      <c r="F24" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G24" s="19">
+        <v>413.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="17">
+        <v>87</v>
+      </c>
+      <c r="F25" s="18">
+        <v>15</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>43879</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G26" s="19">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>43897</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="17">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G27" s="19">
+        <v>139.92999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="17">
+        <v>50</v>
+      </c>
+      <c r="F28" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G28" s="19">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17">
+        <v>66</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G29" s="19">
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>43948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="17">
+        <v>96</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G30" s="19">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>43965</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="17">
+        <v>53</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G31" s="19">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>43982</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="17">
+        <v>80</v>
+      </c>
+      <c r="F32" s="18">
+        <v>8.99</v>
+      </c>
+      <c r="G32" s="19">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>43999</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5</v>
+      </c>
+      <c r="F33" s="18">
+        <v>125</v>
+      </c>
+      <c r="G33" s="19">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>44016</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="17">
+        <v>62</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G34" s="19">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>44033</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="17">
+        <v>55</v>
+      </c>
+      <c r="F35" s="18">
+        <v>12.49</v>
+      </c>
+      <c r="G35" s="19">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>44050</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="17">
+        <v>42</v>
+      </c>
+      <c r="F36" s="18">
+        <v>23.95</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>44067</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="18">
+        <v>275</v>
+      </c>
+      <c r="G37" s="19">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>44084</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="17">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G38" s="19">
+        <v>9.0300000000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>44101</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="17">
+        <v>76</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.99</v>
+      </c>
+      <c r="G39" s="19">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="17">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>44135</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1.29</v>
+      </c>
+      <c r="G41" s="19">
+        <v>18.060000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>44152</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="17">
+        <v>11</v>
+      </c>
+      <c r="F42" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G42" s="19">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>44169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="17">
+        <v>94</v>
+      </c>
+      <c r="F43" s="18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>44186</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="17">
+        <v>28</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4.99</v>
+      </c>
+      <c r="G44" s="19">
+        <v>139.72</v>
       </c>
     </row>
   </sheetData>
@@ -3284,8 +9286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Basic function/12 most useful excel formulas.xlsx
+++ b/Basic function/12 most useful excel formulas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Vlookup" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="5" r:id="rId17"/>
+    <pivotCache cacheId="6" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -962,7 +962,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="abc" spid="_x0000_s4102"/>
+                  <a14:cameraTool cellRange="abc" spid="_x0000_s4103"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1869,58 +1869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M12:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1978,8 +1927,59 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L6:M10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -3200,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6867,7 +6867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:S44"/>
     </sheetView>
   </sheetViews>

--- a/Basic function/12 most useful excel formulas.xlsx
+++ b/Basic function/12 most useful excel formulas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="870" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Vlookup" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Sumiffs with Pivot" sheetId="14" r:id="rId14"/>
     <sheet name="Countif with Pivot" sheetId="15" r:id="rId15"/>
     <sheet name="Countifs with Pivot" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId18"/>
+    <sheet name="Unique" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'&amp; Formula'!$B$2:$D$10</definedName>
@@ -36,8 +39,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId17"/>
-    <pivotCache cacheId="6" r:id="rId18"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="149">
   <si>
     <t>Product ID</t>
   </si>
@@ -475,6 +478,57 @@
   </si>
   <si>
     <t>Q) How many times did Gill sell pencils?</t>
+  </si>
+  <si>
+    <t>Name_Age_Salary</t>
+  </si>
+  <si>
+    <t>Rahul_23_32456</t>
+  </si>
+  <si>
+    <t>Deepak_24_24545</t>
+  </si>
+  <si>
+    <t>Sia_23_234566</t>
+  </si>
+  <si>
+    <t>Ram_34_56465</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>separet name age salary shortcut</t>
+  </si>
+  <si>
+    <t>ctrl+E</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>{"State":"Alabama","Code":"AL"}</t>
+  </si>
+  <si>
+    <t>{"State":"Alaska","Code":"AK"}</t>
+  </si>
+  <si>
+    <t>{"States":"Arizona","Code":"AR"}</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -611,7 +665,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -676,6 +730,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -962,7 +1022,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="abc" spid="_x0000_s4103"/>
+                  <a14:cameraTool cellRange="abc" spid="_x0000_s4110"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1869,7 +1929,58 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M12:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1927,59 +2038,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L6:M10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -2341,7 +2401,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3200,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="G17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4321,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6868,7 +6928,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S44"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -7904,12 +7964,4114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>32456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>24545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>234566</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>56465</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="str">
+        <f>MID(A2,SEARCH(":",A2)+2,(SEARCH(",",A2)-3)-SEARCH(":",A2))</f>
+        <v>Alabama</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C304"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <f>IFERROR(IF(COUNTIF($A$2:A2, A2) = 1, A2, "")," ")</f>
+        <v>63</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C1, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <f>IFERROR(IF(COUNTIF($A$2:A3, A3) = 1, A3, "")," ")</f>
+        <v>37</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C2, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <f>IFERROR(IF(COUNTIF($A$2:A4, A4) = 1, A4, "")," ")</f>
+        <v>41</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C3, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <f>IFERROR(IF(COUNTIF($A$2:A5, A5) = 1, A5, "")," ")</f>
+        <v>56</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C4, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <f>IFERROR(IF(COUNTIF($A$2:A6, A6) = 1, A6, "")," ")</f>
+        <v>57</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C5, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>57</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A7, A7) = 1, A7, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C6, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>56</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A8, A8) = 1, A8, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C7, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <f>IFERROR(IF(COUNTIF($A$2:A9, A9) = 1, A9, "")," ")</f>
+        <v>44</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C8, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <f>IFERROR(IF(COUNTIF($A$2:A10, A10) = 1, A10, "")," ")</f>
+        <v>52</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C9, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>57</v>
+      </c>
+      <c r="B11" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A11, A11) = 1, A11, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C10, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <f>IFERROR(IF(COUNTIF($A$2:A12, A12) = 1, A12, "")," ")</f>
+        <v>54</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C11, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <f>IFERROR(IF(COUNTIF($A$2:A13, A13) = 1, A13, "")," ")</f>
+        <v>48</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C12, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <f>IFERROR(IF(COUNTIF($A$2:A14, A14) = 1, A14, "")," ")</f>
+        <v>49</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C13, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>IFERROR(IF(COUNTIF($A$2:A15, A15) = 1, A15, "")," ")</f>
+        <v>64</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C14, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <f>IFERROR(IF(COUNTIF($A$2:A16, A16) = 1, A16, "")," ")</f>
+        <v>58</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C15, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <f>IFERROR(IF(COUNTIF($A$2:A17, A17) = 1, A17, "")," ")</f>
+        <v>50</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C16, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>58</v>
+      </c>
+      <c r="B18" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A18, A18) = 1, A18, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C17, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <f>IFERROR(IF(COUNTIF($A$2:A19, A19) = 1, A19, "")," ")</f>
+        <v>66</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C18, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <f>IFERROR(IF(COUNTIF($A$2:A20, A20) = 1, A20, "")," ")</f>
+        <v>43</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C19, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <f>IFERROR(IF(COUNTIF($A$2:A21, A21) = 1, A21, "")," ")</f>
+        <v>69</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C20, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <f>IFERROR(IF(COUNTIF($A$2:A22, A22) = 1, A22, "")," ")</f>
+        <v>59</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C21, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>44</v>
+      </c>
+      <c r="B23" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A23, A23) = 1, A23, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C22, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <f>IFERROR(IF(COUNTIF($A$2:A24, A24) = 1, A24, "")," ")</f>
+        <v>42</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C23, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <f>IFERROR(IF(COUNTIF($A$2:A25, A25) = 1, A25, "")," ")</f>
+        <v>61</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C24, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <f>IFERROR(IF(COUNTIF($A$2:A26, A26) = 1, A26, "")," ")</f>
+        <v>40</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C25, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <f>IFERROR(IF(COUNTIF($A$2:A27, A27) = 1, A27, "")," ")</f>
+        <v>71</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C26, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>59</v>
+      </c>
+      <c r="B28" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A28, A28) = 1, A28, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C27, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <f>IFERROR(IF(COUNTIF($A$2:A29, A29) = 1, A29, "")," ")</f>
+        <v>51</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C28, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <f>IFERROR(IF(COUNTIF($A$2:A30, A30) = 1, A30, "")," ")</f>
+        <v>65</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C29, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <f>IFERROR(IF(COUNTIF($A$2:A31, A31) = 1, A31, "")," ")</f>
+        <v>53</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C30, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>41</v>
+      </c>
+      <c r="B32" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A32, A32) = 1, A32, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C31, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>65</v>
+      </c>
+      <c r="B33" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A33, A33) = 1, A33, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C32, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>44</v>
+      </c>
+      <c r="B34" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A34, A34) = 1, A34, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C33, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>54</v>
+      </c>
+      <c r="B35" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A35, A35) = 1, A35, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C34, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>51</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A36, A36) = 1, A36, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C35, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <f>IFERROR(IF(COUNTIF($A$2:A37, A37) = 1, A37, "")," ")</f>
+        <v>46</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C36, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>54</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A38, A38) = 1, A38, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C37, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>54</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A39, A39) = 1, A39, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C38, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>65</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A40, A40) = 1, A40, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C39, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>65</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A41, A41) = 1, A41, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C40, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>51</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A42, A42) = 1, A42, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C41, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>48</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A43, A43) = 1, A43, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C42, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <f>IFERROR(IF(COUNTIF($A$2:A44, A44) = 1, A44, "")," ")</f>
+        <v>45</v>
+      </c>
+      <c r="C44" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C43, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>53</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A45, A45) = 1, A45, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C44, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <f>IFERROR(IF(COUNTIF($A$2:A46, A46) = 1, A46, "")," ")</f>
+        <v>39</v>
+      </c>
+      <c r="C46" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C45, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>52</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A47, A47) = 1, A47, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C46, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
+        <v>44</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A48, A48) = 1, A48, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C47, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f>IFERROR(IF(COUNTIF($A$2:A49, A49) = 1, A49, "")," ")</f>
+        <v>47</v>
+      </c>
+      <c r="C49" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C48, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>53</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A50, A50) = 1, A50, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C49, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>53</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A51, A51) = 1, A51, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C50, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="31">
+        <v>51</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A52, A52) = 1, A52, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C51, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="31">
+        <v>66</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A53, A53) = 1, A53, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C52, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <f>IFERROR(IF(COUNTIF($A$2:A54, A54) = 1, A54, "")," ")</f>
+        <v>62</v>
+      </c>
+      <c r="C54" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C53, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
+        <v>44</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A55, A55) = 1, A55, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C54, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>63</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A56, A56) = 1, A56, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C55, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="31">
+        <v>52</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A57, A57) = 1, A57, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C56, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>48</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A58, A58) = 1, A58, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C57, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="31">
+        <v>45</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A59, A59) = 1, A59, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C58, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
+        <v>34</v>
+      </c>
+      <c r="B60">
+        <f>IFERROR(IF(COUNTIF($A$2:A60, A60) = 1, A60, "")," ")</f>
+        <v>34</v>
+      </c>
+      <c r="C60" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C59, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>57</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A61, A61) = 1, A61, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C60, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
+        <v>71</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A62, A62) = 1, A62, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C61, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>54</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A63, A63) = 1, A63, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C62, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>52</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A64, A64) = 1, A64, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C63, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>41</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A65, A65) = 1, A65, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C64, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>58</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A66, A66) = 1, A66, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C65, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <f>IFERROR(IF(COUNTIF($A$2:A67, A67) = 1, A67, "")," ")</f>
+        <v>35</v>
+      </c>
+      <c r="C67" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C66, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>51</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A68, A68) = 1, A68, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C67, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>45</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A69, A69) = 1, A69, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C68, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>44</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A70, A70) = 1, A70, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C69, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>62</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A71, A71) = 1, A71, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C70, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>54</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A72, A72) = 1, A72, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C71, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>51</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A73, A73) = 1, A73, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C72, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <f>IFERROR(IF(COUNTIF($A$2:A74, A74) = 1, A74, "")," ")</f>
+        <v>29</v>
+      </c>
+      <c r="C74" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C73, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>51</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A75, A75) = 1, A75, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C74, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>43</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A76, A76) = 1, A76, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C75, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <f>IFERROR(IF(COUNTIF($A$2:A77, A77) = 1, A77, "")," ")</f>
+        <v>55</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C76, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
+        <v>51</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A78, A78) = 1, A78, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C77, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="31">
+        <v>59</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A79, A79) = 1, A79, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C78, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>52</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A80, A80) = 1, A80, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C79, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>58</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A81, A81) = 1, A81, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C80, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>41</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A82, A82) = 1, A82, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C81, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>45</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A83, A83) = 1, A83, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C82, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>60</v>
+      </c>
+      <c r="B84">
+        <f>IFERROR(IF(COUNTIF($A$2:A84, A84) = 1, A84, "")," ")</f>
+        <v>60</v>
+      </c>
+      <c r="C84" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C83, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="31">
+        <v>52</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A85, A85) = 1, A85, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C84, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="31">
+        <v>42</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A86, A86) = 1, A86, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C85, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="31">
+        <v>67</v>
+      </c>
+      <c r="B87">
+        <f>IFERROR(IF(COUNTIF($A$2:A87, A87) = 1, A87, "")," ")</f>
+        <v>67</v>
+      </c>
+      <c r="C87" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C86, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="31">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <f>IFERROR(IF(COUNTIF($A$2:A88, A88) = 1, A88, "")," ")</f>
+        <v>68</v>
+      </c>
+      <c r="C88" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C87, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="31">
+        <v>46</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A89, A89) = 1, A89, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C88, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="31">
+        <v>54</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A90, A90) = 1, A90, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C89, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>58</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A91, A91) = 1, A91, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C90, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="31">
+        <v>48</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A92, A92) = 1, A92, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C91, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="31">
+        <v>57</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A93, A93) = 1, A93, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C92, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="31">
+        <v>52</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A94, A94) = 1, A94, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C93, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="31">
+        <v>54</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A95, A95) = 1, A95, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C94, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="31">
+        <v>45</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A96, A96) = 1, A96, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C95, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="31">
+        <v>53</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A97, A97) = 1, A97, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C96, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="31">
+        <v>62</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A98, A98) = 1, A98, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C97, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="31">
+        <v>52</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A99, A99) = 1, A99, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C98, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="31">
+        <v>43</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A100, A100) = 1, A100, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C99, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="31">
+        <v>53</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A101, A101) = 1, A101, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C100, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="31">
+        <v>42</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A102, A102) = 1, A102, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C101, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="31">
+        <v>59</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A103, A103) = 1, A103, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C103" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C102, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="31">
+        <v>63</v>
+      </c>
+      <c r="B104" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A104, A104) = 1, A104, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C104" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C103, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="31">
+        <v>42</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A105, A105) = 1, A105, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C105" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C104, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="31">
+        <v>50</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A106, A106) = 1, A106, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C106" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C105, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="31">
+        <v>68</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A107, A107) = 1, A107, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C107" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C106, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="31">
+        <v>69</v>
+      </c>
+      <c r="B108" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A108, A108) = 1, A108, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C108" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C107, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>45</v>
+      </c>
+      <c r="B109" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A109, A109) = 1, A109, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C109" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C108, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="31">
+        <v>50</v>
+      </c>
+      <c r="B110" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A110, A110) = 1, A110, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C110" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C109, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>50</v>
+      </c>
+      <c r="B111" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A111, A111) = 1, A111, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C111" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C110, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="31">
+        <v>64</v>
+      </c>
+      <c r="B112" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A112, A112) = 1, A112, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C112" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C111, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="31">
+        <v>57</v>
+      </c>
+      <c r="B113" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A113, A113) = 1, A113, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C113" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C112, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="31">
+        <v>64</v>
+      </c>
+      <c r="B114" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A114, A114) = 1, A114, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C114" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C113, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="31">
+        <v>43</v>
+      </c>
+      <c r="B115" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A115, A115) = 1, A115, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C115" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C114, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="31">
+        <v>55</v>
+      </c>
+      <c r="B116" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A116, A116) = 1, A116, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C116" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C115, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="31">
+        <v>37</v>
+      </c>
+      <c r="B117" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A117, A117) = 1, A117, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C117" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C116, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="31">
+        <v>41</v>
+      </c>
+      <c r="B118" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A118, A118) = 1, A118, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C118" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C117, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="31">
+        <v>56</v>
+      </c>
+      <c r="B119" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A119, A119) = 1, A119, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C119" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C118, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="31">
+        <v>46</v>
+      </c>
+      <c r="B120" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A120, A120) = 1, A120, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C120" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C119, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="31">
+        <v>46</v>
+      </c>
+      <c r="B121" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A121, A121) = 1, A121, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C121" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C120, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="31">
+        <v>64</v>
+      </c>
+      <c r="B122" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A122, A122) = 1, A122, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C122" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C121, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="31">
+        <v>59</v>
+      </c>
+      <c r="B123" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A123, A123) = 1, A123, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C123" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C122, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="31">
+        <v>41</v>
+      </c>
+      <c r="B124" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A124, A124) = 1, A124, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C124" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C123, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="31">
+        <v>54</v>
+      </c>
+      <c r="B125" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A125, A125) = 1, A125, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C125" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C124, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="31">
+        <v>39</v>
+      </c>
+      <c r="B126" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A126, A126) = 1, A126, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C125, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="31">
+        <v>34</v>
+      </c>
+      <c r="B127" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A127, A127) = 1, A127, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C127" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C126, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="31">
+        <v>47</v>
+      </c>
+      <c r="B128" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A128, A128) = 1, A128, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C128" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C127, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="31">
+        <v>67</v>
+      </c>
+      <c r="B129" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A129, A129) = 1, A129, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C129" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C128, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="31">
+        <v>52</v>
+      </c>
+      <c r="B130" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A130, A130) = 1, A130, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C130" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C129, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="31">
+        <v>74</v>
+      </c>
+      <c r="B131">
+        <f>IFERROR(IF(COUNTIF($A$2:A131, A131) = 1, A131, "")," ")</f>
+        <v>74</v>
+      </c>
+      <c r="C131" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C130, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="31">
+        <v>54</v>
+      </c>
+      <c r="B132" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A132, A132) = 1, A132, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C132" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C131, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="31">
+        <v>49</v>
+      </c>
+      <c r="B133" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A133, A133) = 1, A133, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C133" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C132, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="31">
+        <v>42</v>
+      </c>
+      <c r="B134" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A134, A134) = 1, A134, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C134" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C133, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="31">
+        <v>41</v>
+      </c>
+      <c r="B135" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A135, A135) = 1, A135, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C135" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C134, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="31">
+        <v>41</v>
+      </c>
+      <c r="B136" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A136, A136) = 1, A136, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C136" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C135, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="31">
+        <v>49</v>
+      </c>
+      <c r="B137" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A137, A137) = 1, A137, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C137" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C136, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="31">
+        <v>60</v>
+      </c>
+      <c r="B138" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A138, A138) = 1, A138, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C138" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C137, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="31">
+        <v>62</v>
+      </c>
+      <c r="B139" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A139, A139) = 1, A139, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C139" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C138, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="31">
+        <v>57</v>
+      </c>
+      <c r="B140" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A140, A140) = 1, A140, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C140" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C139, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="31">
+        <v>64</v>
+      </c>
+      <c r="B141" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A141, A141) = 1, A141, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C141" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C140, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="31">
+        <v>51</v>
+      </c>
+      <c r="B142" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A142, A142) = 1, A142, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C142" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C141, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="31">
+        <v>43</v>
+      </c>
+      <c r="B143" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A143, A143) = 1, A143, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C143" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C142, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="31">
+        <v>42</v>
+      </c>
+      <c r="B144" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A144, A144) = 1, A144, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C144" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C143, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="31">
+        <v>67</v>
+      </c>
+      <c r="B145" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A145, A145) = 1, A145, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C145" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C144, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="31">
+        <v>76</v>
+      </c>
+      <c r="B146">
+        <f>IFERROR(IF(COUNTIF($A$2:A146, A146) = 1, A146, "")," ")</f>
+        <v>76</v>
+      </c>
+      <c r="C146" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C145, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="31">
+        <v>70</v>
+      </c>
+      <c r="B147">
+        <f>IFERROR(IF(COUNTIF($A$2:A147, A147) = 1, A147, "")," ")</f>
+        <v>70</v>
+      </c>
+      <c r="C147" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C146, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="31">
+        <v>44</v>
+      </c>
+      <c r="B148" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A148, A148) = 1, A148, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C147, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="31">
+        <v>60</v>
+      </c>
+      <c r="B149" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A149, A149) = 1, A149, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C149" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C148, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="31">
+        <v>44</v>
+      </c>
+      <c r="B150" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A150, A150) = 1, A150, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C150" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C149, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="31">
+        <v>42</v>
+      </c>
+      <c r="B151" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A151, A151) = 1, A151, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C151" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C150, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="31">
+        <v>66</v>
+      </c>
+      <c r="B152" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A152, A152) = 1, A152, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C151, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="31">
+        <v>71</v>
+      </c>
+      <c r="B153" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A153, A153) = 1, A153, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C153" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C152, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="31">
+        <v>64</v>
+      </c>
+      <c r="B154" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A154, A154) = 1, A154, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C154" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C153, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="31">
+        <v>66</v>
+      </c>
+      <c r="B155" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A155, A155) = 1, A155, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C155" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C154, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="31">
+        <v>39</v>
+      </c>
+      <c r="B156" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A156, A156) = 1, A156, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C156" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C155, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="31">
+        <v>58</v>
+      </c>
+      <c r="B157" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A157, A157) = 1, A157, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C157" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C156, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="31">
+        <v>47</v>
+      </c>
+      <c r="B158" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A158, A158) = 1, A158, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C158" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C157, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="31">
+        <v>35</v>
+      </c>
+      <c r="B159" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A159, A159) = 1, A159, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C159" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C158, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="31">
+        <v>58</v>
+      </c>
+      <c r="B160" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A160, A160) = 1, A160, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C160" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C159, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="31">
+        <v>56</v>
+      </c>
+      <c r="B161" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A161, A161) = 1, A161, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C161" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C160, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="31">
+        <v>56</v>
+      </c>
+      <c r="B162" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A162, A162) = 1, A162, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C162" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C161, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="31">
+        <v>55</v>
+      </c>
+      <c r="B163" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A163, A163) = 1, A163, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C163" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C162, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="31">
+        <v>41</v>
+      </c>
+      <c r="B164" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A164, A164) = 1, A164, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C164" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C163, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="31">
+        <v>38</v>
+      </c>
+      <c r="B165">
+        <f>IFERROR(IF(COUNTIF($A$2:A165, A165) = 1, A165, "")," ")</f>
+        <v>38</v>
+      </c>
+      <c r="C165" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C164, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="31">
+        <v>38</v>
+      </c>
+      <c r="B166" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A166, A166) = 1, A166, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C166" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C165, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="31">
+        <v>67</v>
+      </c>
+      <c r="B167" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A167, A167) = 1, A167, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C167" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C166, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="31">
+        <v>67</v>
+      </c>
+      <c r="B168" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A168, A168) = 1, A168, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C168" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C167, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="31">
+        <v>62</v>
+      </c>
+      <c r="B169" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A169, A169) = 1, A169, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C169" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C168, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="31">
+        <v>63</v>
+      </c>
+      <c r="B170" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A170, A170) = 1, A170, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C170" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C169, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="31">
+        <v>53</v>
+      </c>
+      <c r="B171" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A171, A171) = 1, A171, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C171" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C170, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="31">
+        <v>56</v>
+      </c>
+      <c r="B172" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A172, A172) = 1, A172, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C172" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C171, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="31">
+        <v>48</v>
+      </c>
+      <c r="B173" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A173, A173) = 1, A173, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C173" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C172, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="31">
+        <v>58</v>
+      </c>
+      <c r="B174" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A174, A174) = 1, A174, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C174" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C173, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="31">
+        <v>58</v>
+      </c>
+      <c r="B175" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A175, A175) = 1, A175, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C175" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C174, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="31">
+        <v>60</v>
+      </c>
+      <c r="B176" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A176, A176) = 1, A176, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C176" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C175, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="31">
+        <v>40</v>
+      </c>
+      <c r="B177" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A177, A177) = 1, A177, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C177" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C176, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="31">
+        <v>60</v>
+      </c>
+      <c r="B178" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A178, A178) = 1, A178, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C178" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C177, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="31">
+        <v>64</v>
+      </c>
+      <c r="B179" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A179, A179) = 1, A179, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C179" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C178, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="31">
+        <v>43</v>
+      </c>
+      <c r="B180" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A180, A180) = 1, A180, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C180" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C179, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="31">
+        <v>57</v>
+      </c>
+      <c r="B181" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A181, A181) = 1, A181, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C181" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C180, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="31">
+        <v>55</v>
+      </c>
+      <c r="B182" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A182, A182) = 1, A182, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C182" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C181, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="31">
+        <v>65</v>
+      </c>
+      <c r="B183" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A183, A183) = 1, A183, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C183" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C182, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="31">
+        <v>61</v>
+      </c>
+      <c r="B184" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A184, A184) = 1, A184, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C184" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C183, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="31">
+        <v>58</v>
+      </c>
+      <c r="B185" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A185, A185) = 1, A185, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C185" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C184, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="31">
+        <v>50</v>
+      </c>
+      <c r="B186" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A186, A186) = 1, A186, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C186" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C185, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="31">
+        <v>44</v>
+      </c>
+      <c r="B187" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A187, A187) = 1, A187, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C187" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C186, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="31">
+        <v>60</v>
+      </c>
+      <c r="B188" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A188, A188) = 1, A188, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C188" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C187, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="31">
+        <v>54</v>
+      </c>
+      <c r="B189" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A189, A189) = 1, A189, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C189" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C188, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="31">
+        <v>50</v>
+      </c>
+      <c r="B190" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A190, A190) = 1, A190, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C190" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C189, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="31">
+        <v>41</v>
+      </c>
+      <c r="B191" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A191, A191) = 1, A191, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C190, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="31">
+        <v>51</v>
+      </c>
+      <c r="B192" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A192, A192) = 1, A192, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C192" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C191, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="31">
+        <v>58</v>
+      </c>
+      <c r="B193" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A193, A193) = 1, A193, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C193" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C192, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="31">
+        <v>54</v>
+      </c>
+      <c r="B194" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A194, A194) = 1, A194, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C194" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C193, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="31">
+        <v>60</v>
+      </c>
+      <c r="B195" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A195, A195) = 1, A195, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C195" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C194, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="31">
+        <v>60</v>
+      </c>
+      <c r="B196" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A196, A196) = 1, A196, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C196" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C195, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="31">
+        <v>59</v>
+      </c>
+      <c r="B197" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A197, A197) = 1, A197, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C196, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="31">
+        <v>46</v>
+      </c>
+      <c r="B198" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A198, A198) = 1, A198, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C198" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C197, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="31">
+        <v>67</v>
+      </c>
+      <c r="B199" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A199, A199) = 1, A199, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C199" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C198, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="31">
+        <v>62</v>
+      </c>
+      <c r="B200" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A200, A200) = 1, A200, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C200" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C199, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="31">
+        <v>65</v>
+      </c>
+      <c r="B201" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A201, A201) = 1, A201, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C201" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C200, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="31">
+        <v>44</v>
+      </c>
+      <c r="B202" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A202, A202) = 1, A202, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C202" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C201, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="31">
+        <v>60</v>
+      </c>
+      <c r="B203" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A203, A203) = 1, A203, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C203" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C202, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="31">
+        <v>58</v>
+      </c>
+      <c r="B204" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A204, A204) = 1, A204, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C204" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C203, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="31">
+        <v>68</v>
+      </c>
+      <c r="B205" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A205, A205) = 1, A205, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C205" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C204, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="31">
+        <v>62</v>
+      </c>
+      <c r="B206" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A206, A206) = 1, A206, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C206" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C205, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="31">
+        <v>52</v>
+      </c>
+      <c r="B207" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A207, A207) = 1, A207, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C207" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C206, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="31">
+        <v>59</v>
+      </c>
+      <c r="B208" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A208, A208) = 1, A208, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C208" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C207, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="31">
+        <v>60</v>
+      </c>
+      <c r="B209" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A209, A209) = 1, A209, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C209" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C208, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="31">
+        <v>49</v>
+      </c>
+      <c r="B210" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A210, A210) = 1, A210, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C210" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C209, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="31">
+        <v>59</v>
+      </c>
+      <c r="B211" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A211, A211) = 1, A211, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C211" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C210, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="31">
+        <v>57</v>
+      </c>
+      <c r="B212" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A212, A212) = 1, A212, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C212" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C211, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="31">
+        <v>61</v>
+      </c>
+      <c r="B213" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A213, A213) = 1, A213, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C213" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C212, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="31">
+        <v>39</v>
+      </c>
+      <c r="B214" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A214, A214) = 1, A214, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C214" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C213, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="31">
+        <v>61</v>
+      </c>
+      <c r="B215" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A215, A215) = 1, A215, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C215" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C214, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="31">
+        <v>56</v>
+      </c>
+      <c r="B216" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A216, A216) = 1, A216, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C216" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C215, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="31">
+        <v>43</v>
+      </c>
+      <c r="B217" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A217, A217) = 1, A217, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C217" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C216, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="31">
+        <v>62</v>
+      </c>
+      <c r="B218" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A218, A218) = 1, A218, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C218" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C217, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="31">
+        <v>63</v>
+      </c>
+      <c r="B219" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A219, A219) = 1, A219, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C218, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="31">
+        <v>65</v>
+      </c>
+      <c r="B220" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A220, A220) = 1, A220, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C220" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C219, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="31">
+        <v>48</v>
+      </c>
+      <c r="B221" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A221, A221) = 1, A221, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C221" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C220, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="31">
+        <v>63</v>
+      </c>
+      <c r="B222" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A222, A222) = 1, A222, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C222" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C221, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="31">
+        <v>55</v>
+      </c>
+      <c r="B223" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A223, A223) = 1, A223, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C223" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C222, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="31">
+        <v>65</v>
+      </c>
+      <c r="B224" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A224, A224) = 1, A224, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C224" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C223, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="31">
+        <v>56</v>
+      </c>
+      <c r="B225" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A225, A225) = 1, A225, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C225" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C224, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="31">
+        <v>54</v>
+      </c>
+      <c r="B226" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A226, A226) = 1, A226, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C226" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C225, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="31">
+        <v>70</v>
+      </c>
+      <c r="B227" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A227, A227) = 1, A227, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C226, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="31">
+        <v>62</v>
+      </c>
+      <c r="B228" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A228, A228) = 1, A228, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C228" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C227, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="31">
+        <v>35</v>
+      </c>
+      <c r="B229" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A229, A229) = 1, A229, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C229" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C228, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="31">
+        <v>59</v>
+      </c>
+      <c r="B230" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A230, A230) = 1, A230, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C230" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C229, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="31">
+        <v>64</v>
+      </c>
+      <c r="B231" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A231, A231) = 1, A231, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C231" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C230, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="31">
+        <v>47</v>
+      </c>
+      <c r="B232" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A232, A232) = 1, A232, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C232" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C231, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="31">
+        <v>57</v>
+      </c>
+      <c r="B233" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A233, A233) = 1, A233, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C233" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C232, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="31">
+        <v>55</v>
+      </c>
+      <c r="B234" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A234, A234) = 1, A234, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C234" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C233, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="31">
+        <v>64</v>
+      </c>
+      <c r="B235" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A235, A235) = 1, A235, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C235" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C234, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="31">
+        <v>70</v>
+      </c>
+      <c r="B236" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A236, A236) = 1, A236, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C236" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C235, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="31">
+        <v>51</v>
+      </c>
+      <c r="B237" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A237, A237) = 1, A237, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C237" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C236, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="31">
+        <v>58</v>
+      </c>
+      <c r="B238" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A238, A238) = 1, A238, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C238" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C237, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="31">
+        <v>60</v>
+      </c>
+      <c r="B239" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A239, A239) = 1, A239, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C239" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C238, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="31">
+        <v>77</v>
+      </c>
+      <c r="B240">
+        <f>IFERROR(IF(COUNTIF($A$2:A240, A240) = 1, A240, "")," ")</f>
+        <v>77</v>
+      </c>
+      <c r="C240" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C239, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="31">
+        <v>35</v>
+      </c>
+      <c r="B241" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A241, A241) = 1, A241, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C241" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C240, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="31">
+        <v>70</v>
+      </c>
+      <c r="B242" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A242, A242) = 1, A242, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C242" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C241, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="31">
+        <v>59</v>
+      </c>
+      <c r="B243" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A243, A243) = 1, A243, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C243" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C242, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="31">
+        <v>64</v>
+      </c>
+      <c r="B244" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A244, A244) = 1, A244, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C244" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C243, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="31">
+        <v>57</v>
+      </c>
+      <c r="B245" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A245, A245) = 1, A245, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C245" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C244, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="31">
+        <v>56</v>
+      </c>
+      <c r="B246" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A246, A246) = 1, A246, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C246" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C245, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="31">
+        <v>48</v>
+      </c>
+      <c r="B247" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A247, A247) = 1, A247, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C247" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C246, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="31">
+        <v>56</v>
+      </c>
+      <c r="B248" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A248, A248) = 1, A248, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C248" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C247, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="31">
+        <v>66</v>
+      </c>
+      <c r="B249" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A249, A249) = 1, A249, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C249" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C248, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="31">
+        <v>54</v>
+      </c>
+      <c r="B250" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A250, A250) = 1, A250, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C250" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C249, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="31">
+        <v>69</v>
+      </c>
+      <c r="B251" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A251, A251) = 1, A251, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C251" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C250, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="31">
+        <v>51</v>
+      </c>
+      <c r="B252" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A252, A252) = 1, A252, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C252" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C251, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="31">
+        <v>43</v>
+      </c>
+      <c r="B253" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A253, A253) = 1, A253, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C253" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C252, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="31">
+        <v>62</v>
+      </c>
+      <c r="B254" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A254, A254) = 1, A254, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C254" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C253, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="31">
+        <v>67</v>
+      </c>
+      <c r="B255" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A255, A255) = 1, A255, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C255" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C254, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="31">
+        <v>59</v>
+      </c>
+      <c r="B256" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A256, A256) = 1, A256, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C256" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C255, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="31">
+        <v>45</v>
+      </c>
+      <c r="B257" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A257, A257) = 1, A257, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C257" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C256, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="31">
+        <v>58</v>
+      </c>
+      <c r="B258" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A258, A258) = 1, A258, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C258" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C257, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="31">
+        <v>50</v>
+      </c>
+      <c r="B259" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A259, A259) = 1, A259, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C259" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C258, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="31">
+        <v>62</v>
+      </c>
+      <c r="B260" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A260, A260) = 1, A260, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C260" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C259, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="31">
+        <v>38</v>
+      </c>
+      <c r="B261" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A261, A261) = 1, A261, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C261" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C260, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="31">
+        <v>66</v>
+      </c>
+      <c r="B262" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A262, A262) = 1, A262, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C262" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C261, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="31">
+        <v>52</v>
+      </c>
+      <c r="B263" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A263, A263) = 1, A263, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C263" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C262, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="31">
+        <v>53</v>
+      </c>
+      <c r="B264" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A264, A264) = 1, A264, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C264" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C263, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="31">
+        <v>63</v>
+      </c>
+      <c r="B265" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A265, A265) = 1, A265, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C265" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C264, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="31">
+        <v>54</v>
+      </c>
+      <c r="B266" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A266, A266) = 1, A266, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C266" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C265, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="31">
+        <v>66</v>
+      </c>
+      <c r="B267" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A267, A267) = 1, A267, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C267" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C266, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="31">
+        <v>55</v>
+      </c>
+      <c r="B268" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A268, A268) = 1, A268, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C268" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C267, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="31">
+        <v>49</v>
+      </c>
+      <c r="B269" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A269, A269) = 1, A269, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C269" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C268, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="31">
+        <v>54</v>
+      </c>
+      <c r="B270" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A270, A270) = 1, A270, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C270" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C269, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="31">
+        <v>56</v>
+      </c>
+      <c r="B271" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A271, A271) = 1, A271, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C271" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C270, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="31">
+        <v>46</v>
+      </c>
+      <c r="B272" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A272, A272) = 1, A272, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C272" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C271, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="31">
+        <v>61</v>
+      </c>
+      <c r="B273" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A273, A273) = 1, A273, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C273" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C272, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="31">
+        <v>67</v>
+      </c>
+      <c r="B274" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A274, A274) = 1, A274, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C274" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C273, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="31">
+        <v>58</v>
+      </c>
+      <c r="B275" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A275, A275) = 1, A275, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C275" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C274, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="31">
+        <v>47</v>
+      </c>
+      <c r="B276" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A276, A276) = 1, A276, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C276" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C275, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="31">
+        <v>52</v>
+      </c>
+      <c r="B277" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A277, A277) = 1, A277, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C277" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C276, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="31">
+        <v>58</v>
+      </c>
+      <c r="B278" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A278, A278) = 1, A278, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C278" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C277, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="31">
+        <v>57</v>
+      </c>
+      <c r="B279" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A279, A279) = 1, A279, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C279" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C278, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="31">
+        <v>58</v>
+      </c>
+      <c r="B280" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A280, A280) = 1, A280, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C280" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C279, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="31">
+        <v>61</v>
+      </c>
+      <c r="B281" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A281, A281) = 1, A281, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C281" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C280, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="31">
+        <v>42</v>
+      </c>
+      <c r="B282" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A282, A282) = 1, A282, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C282" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C281, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="31">
+        <v>52</v>
+      </c>
+      <c r="B283" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A283, A283) = 1, A283, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C283" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C282, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="31">
+        <v>59</v>
+      </c>
+      <c r="B284" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A284, A284) = 1, A284, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C284" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C283, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="31">
+        <v>40</v>
+      </c>
+      <c r="B285" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A285, A285) = 1, A285, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C285" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C284, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="31">
+        <v>61</v>
+      </c>
+      <c r="B286" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A286, A286) = 1, A286, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C286" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C285, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="31">
+        <v>46</v>
+      </c>
+      <c r="B287" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A287, A287) = 1, A287, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C287" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C286, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="31">
+        <v>59</v>
+      </c>
+      <c r="B288" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A288, A288) = 1, A288, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C288" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C287, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="31">
+        <v>57</v>
+      </c>
+      <c r="B289" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A289, A289) = 1, A289, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C289" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C288, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="31">
+        <v>57</v>
+      </c>
+      <c r="B290" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A290, A290) = 1, A290, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C289, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="31">
+        <v>55</v>
+      </c>
+      <c r="B291" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A291, A291) = 1, A291, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C291" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C290, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="31">
+        <v>61</v>
+      </c>
+      <c r="B292" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A292, A292) = 1, A292, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C292" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C291, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="31">
+        <v>58</v>
+      </c>
+      <c r="B293" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A293, A293) = 1, A293, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C293" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C292, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="31">
+        <v>58</v>
+      </c>
+      <c r="B294" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A294, A294) = 1, A294, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C293, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="31">
+        <v>67</v>
+      </c>
+      <c r="B295" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A295, A295) = 1, A295, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C295" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C294, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="31">
+        <v>44</v>
+      </c>
+      <c r="B296" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A296, A296) = 1, A296, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C296" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C295, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="31">
+        <v>63</v>
+      </c>
+      <c r="B297" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A297, A297) = 1, A297, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C297" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C296, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="31">
+        <v>63</v>
+      </c>
+      <c r="B298" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A298, A298) = 1, A298, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C298" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C297, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="31">
+        <v>59</v>
+      </c>
+      <c r="B299" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A299, A299) = 1, A299, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C299" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C298, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="31">
+        <v>57</v>
+      </c>
+      <c r="B300" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A300, A300) = 1, A300, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C300" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C299, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="31">
+        <v>45</v>
+      </c>
+      <c r="B301" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A301, A301) = 1, A301, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C301" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C300, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="31">
+        <v>68</v>
+      </c>
+      <c r="B302" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A302, A302) = 1, A302, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C301, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="31">
+        <v>57</v>
+      </c>
+      <c r="B303" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A303, A303) = 1, A303, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C303" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C302, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="31">
+        <v>57</v>
+      </c>
+      <c r="B304" t="str">
+        <f>IFERROR(IF(COUNTIF($A$2:A304, A304) = 1, A304, "")," ")</f>
+        <v/>
+      </c>
+      <c r="C304" t="str">
+        <f>IFERROR(INDEX($A$2:$A$10, MATCH(0, COUNTIF($C$1:C303, $A$2:$A$10), 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M3" sqref="M3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -7921,7 +12083,7 @@
     <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
@@ -7950,7 +12112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
@@ -7980,8 +12142,12 @@
         <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($K$2:K3),0)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($B$3:B7),0)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
@@ -8004,8 +12170,12 @@
         <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($K$2:K4),0)</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($B$3:B8),0)</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
@@ -8028,8 +12198,12 @@
         <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($K$2:K5),0)</f>
         <v>1100</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="e">
+        <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($B$3:B9),0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
@@ -8052,8 +12226,12 @@
         <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($K$2:K6),0)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="e">
+        <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($B$3:B10),0)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -8079,6 +12257,10 @@
       <c r="L7" s="4">
         <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($K$2:K7),0)</f>
         <v>2800</v>
+      </c>
+      <c r="M7" t="e">
+        <f>HLOOKUP($L$2,$B$2:$F$7,ROWS($B$3:B11),0)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -8617,7 +12799,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8993,7 +13175,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9001,6 +13183,7 @@
     <col min="2" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" customWidth="1"/>
     <col min="5" max="5" width="23.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -9145,7 +13328,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9287,7 +13470,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
